--- a/Richmond/RVA-Zoning-Descriptions.xlsx
+++ b/Richmond/RVA-Zoning-Descriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billy/Documents/GitHub/Zoning-analysis/Richmond/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EF126B-0030-8342-8AD2-DE8C671EA058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D9724-75BF-D44D-9EAA-C8CA0F2A8013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{83533B71-F38D-8744-B7F3-CEE975364EC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="472">
   <si>
     <t>County</t>
   </si>
@@ -326,9 +326,6 @@
     <t>TOD-1</t>
   </si>
   <si>
-    <t>Transit-orinted nodal district</t>
-  </si>
-  <si>
     <t>Commercial (with restricted residential and industrial)</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>A-1</t>
   </si>
   <si>
-    <t>AgrIcultural district</t>
-  </si>
-  <si>
     <t>Residential, commercial, and industrial</t>
   </si>
   <si>
@@ -605,9 +599,6 @@
     <t>I-3</t>
   </si>
   <si>
-    <t>General industiral district</t>
-  </si>
-  <si>
     <t>Manufactured home</t>
   </si>
   <si>
@@ -932,9 +923,6 @@
     <t>Residential planned unit development district</t>
   </si>
   <si>
-    <t>Single-family dwelling, two-family dwelling, multifamily dweling</t>
-  </si>
-  <si>
     <t>Residential, manufactured home park, district</t>
   </si>
   <si>
@@ -1091,12 +1079,6 @@
     <t>Single-family detached, manufactured home</t>
   </si>
   <si>
-    <t>Agricultiral/anial confinement district</t>
-  </si>
-  <si>
-    <t>Crossraods district</t>
-  </si>
-  <si>
     <t>Single-family detached, duplex, townhouse, three-family dwelling, four-family dwelling</t>
   </si>
   <si>
@@ -1328,9 +1310,6 @@
     <t>Limited residential district</t>
   </si>
   <si>
-    <t>Single-family dwelling, two-family dwelling, multifamily dweling, tourist home</t>
-  </si>
-  <si>
     <t>New Kent</t>
   </si>
   <si>
@@ -1439,9 +1418,6 @@
     <t xml:space="preserve">Multiple dwelling district </t>
   </si>
   <si>
-    <t>Single-family dwelling, two-family dwelling, multiple family dweling</t>
-  </si>
-  <si>
     <t>High rise district</t>
   </si>
   <si>
@@ -1458,6 +1434,24 @@
   </si>
   <si>
     <t>Petersburg county map</t>
+  </si>
+  <si>
+    <t>Single-family dwelling, two-family dwelling, multifamily dwelling, tourist home</t>
+  </si>
+  <si>
+    <t>Single-family dwelling, two-family dwelling, multifamily dwelling</t>
+  </si>
+  <si>
+    <t>Single-family dwelling, two-family dwelling, multiple family dwelling</t>
+  </si>
+  <si>
+    <t>Transit-oriented nodal district</t>
+  </si>
+  <si>
+    <t>Agricultural/animal confinement district</t>
+  </si>
+  <si>
+    <t>Crossroads district</t>
   </si>
 </sst>
 </file>
@@ -1914,9 +1908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAB8BF4-B059-6649-88B7-8DB6F3983955}">
   <dimension ref="A1:CM328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,22 +1929,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>2</v>
@@ -2059,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -2168,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -2277,7 +2271,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -2386,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -2495,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -2604,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -2713,7 +2707,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -2822,7 +2816,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -2928,10 +2922,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -3040,7 +3034,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -3149,7 +3143,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -3258,7 +3252,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -3367,7 +3361,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -3476,7 +3470,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -3585,7 +3579,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -3679,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
@@ -3694,7 +3688,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -3788,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -3803,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -3897,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -3912,7 +3906,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -4021,7 +4015,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -4130,7 +4124,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -4239,7 +4233,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -4348,7 +4342,7 @@
         <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -4457,7 +4451,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -4566,7 +4560,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -4675,7 +4669,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -4784,7 +4778,7 @@
         <v>31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -4893,7 +4887,7 @@
         <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -5002,7 +4996,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -5111,7 +5105,7 @@
         <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -5220,7 +5214,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -5329,7 +5323,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -5438,7 +5432,7 @@
         <v>59</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -5547,7 +5541,7 @@
         <v>31</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -5656,7 +5650,7 @@
         <v>31</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -5765,7 +5759,7 @@
         <v>31</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -5874,7 +5868,7 @@
         <v>59</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -5983,7 +5977,7 @@
         <v>59</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -6080,10 +6074,10 @@
         <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
@@ -6092,7 +6086,7 @@
         <v>31</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -6183,13 +6177,13 @@
     </row>
     <row r="40" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>92</v>
@@ -6201,7 +6195,7 @@
         <v>59</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -6209,10 +6203,10 @@
     </row>
     <row r="41" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -6227,7 +6221,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -6235,10 +6229,10 @@
     </row>
     <row r="42" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -6253,7 +6247,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -6261,7 +6255,7 @@
     </row>
     <row r="43" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -6279,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -6287,10 +6281,10 @@
     </row>
     <row r="44" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -6305,7 +6299,7 @@
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -6313,7 +6307,7 @@
     </row>
     <row r="45" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -6331,7 +6325,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -6339,10 +6333,10 @@
     </row>
     <row r="46" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -6357,7 +6351,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
@@ -6365,7 +6359,7 @@
     </row>
     <row r="47" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -6383,7 +6377,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
@@ -6391,10 +6385,10 @@
     </row>
     <row r="48" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -6409,7 +6403,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -6417,7 +6411,7 @@
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -6435,7 +6429,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -6443,10 +6437,10 @@
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -6461,7 +6455,7 @@
         <v>8</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -6469,7 +6463,7 @@
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -6481,13 +6475,13 @@
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -6495,7 +6489,7 @@
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -6507,13 +6501,13 @@
         <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -6521,7 +6515,7 @@
     </row>
     <row r="53" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -6533,13 +6527,13 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -6547,10 +6541,10 @@
     </row>
     <row r="54" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
@@ -6559,13 +6553,13 @@
         <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -6573,25 +6567,25 @@
     </row>
     <row r="55" spans="1:91" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>9</v>
@@ -6682,13 +6676,13 @@
     </row>
     <row r="56" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>58</v>
@@ -6700,7 +6694,7 @@
         <v>59</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -6791,13 +6785,13 @@
     </row>
     <row r="57" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>58</v>
@@ -6809,7 +6803,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H57" t="s">
         <v>9</v>
@@ -6900,13 +6894,13 @@
     </row>
     <row r="58" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>58</v>
@@ -6918,7 +6912,7 @@
         <v>59</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -7009,10 +7003,10 @@
     </row>
     <row r="59" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>85</v>
@@ -7027,7 +7021,7 @@
         <v>59</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -7118,25 +7112,25 @@
     </row>
     <row r="60" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -7227,25 +7221,25 @@
     </row>
     <row r="61" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -7336,25 +7330,25 @@
     </row>
     <row r="62" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -7445,7 +7439,7 @@
     </row>
     <row r="63" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
@@ -7463,7 +7457,7 @@
         <v>59</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
@@ -7554,13 +7548,13 @@
     </row>
     <row r="64" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>92</v>
@@ -7572,7 +7566,7 @@
         <v>59</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -7663,10 +7657,10 @@
     </row>
     <row r="65" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>94</v>
@@ -7681,7 +7675,7 @@
         <v>59</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H65" t="s">
         <v>9</v>
@@ -7772,25 +7766,25 @@
     </row>
     <row r="66" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H66" t="s">
         <v>9</v>
@@ -7881,25 +7875,25 @@
     </row>
     <row r="67" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
@@ -7990,25 +7984,25 @@
     </row>
     <row r="68" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H68" t="s">
         <v>9</v>
@@ -8099,25 +8093,25 @@
     </row>
     <row r="69" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H69" t="s">
         <v>9</v>
@@ -8208,25 +8202,25 @@
     </row>
     <row r="70" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H70" t="s">
         <v>9</v>
@@ -8317,13 +8311,13 @@
     </row>
     <row r="71" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>92</v>
@@ -8335,7 +8329,7 @@
         <v>59</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H71" t="s">
         <v>9</v>
@@ -8426,25 +8420,25 @@
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
@@ -8452,25 +8446,25 @@
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H73" t="s">
         <v>9</v>
@@ -8478,25 +8472,25 @@
     </row>
     <row r="74" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H74" t="s">
         <v>9</v>
@@ -8504,10 +8498,10 @@
     </row>
     <row r="75" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -8522,7 +8516,7 @@
         <v>8</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H75" t="s">
         <v>9</v>
@@ -8530,25 +8524,25 @@
     </row>
     <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
@@ -8556,25 +8550,25 @@
     </row>
     <row r="77" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H77" t="s">
         <v>9</v>
@@ -8582,16 +8576,16 @@
     </row>
     <row r="78" spans="1:91" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>7</v>
@@ -8600,7 +8594,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>9</v>
@@ -8608,25 +8602,25 @@
     </row>
     <row r="79" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
@@ -8634,25 +8628,25 @@
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H80" t="s">
         <v>9</v>
@@ -8660,25 +8654,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H81" t="s">
         <v>9</v>
@@ -8686,25 +8680,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -8712,7 +8706,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s">
         <v>56</v>
@@ -8730,7 +8724,7 @@
         <v>59</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
@@ -8738,7 +8732,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
@@ -8756,7 +8750,7 @@
         <v>59</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
@@ -8764,7 +8758,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
@@ -8782,7 +8776,7 @@
         <v>59</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -8790,13 +8784,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s">
         <v>66</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>58</v>
@@ -8808,7 +8802,7 @@
         <v>59</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H86" t="s">
         <v>9</v>
@@ -8816,13 +8810,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>58</v>
@@ -8834,7 +8828,7 @@
         <v>59</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H87" t="s">
         <v>9</v>
@@ -8842,16 +8836,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" t="s">
         <v>303</v>
       </c>
-      <c r="B88" t="s">
-        <v>307</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>59</v>
@@ -8860,7 +8854,7 @@
         <v>59</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H88" t="s">
         <v>9</v>
@@ -8868,13 +8862,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>92</v>
@@ -8886,7 +8880,7 @@
         <v>59</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
@@ -8894,7 +8888,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -8912,7 +8906,7 @@
         <v>59</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H90" t="s">
         <v>9</v>
@@ -8920,10 +8914,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>94</v>
@@ -8938,7 +8932,7 @@
         <v>59</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H91" t="s">
         <v>9</v>
@@ -8946,25 +8940,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B92" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H92" t="s">
         <v>9</v>
@@ -8972,16 +8966,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B93" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>89</v>
@@ -8990,7 +8984,7 @@
         <v>24</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H93" t="s">
         <v>9</v>
@@ -8998,25 +8992,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B94" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H94" t="s">
         <v>9</v>
@@ -9024,13 +9018,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>58</v>
@@ -9042,7 +9036,7 @@
         <v>59</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H95" t="s">
         <v>9</v>
@@ -9050,13 +9044,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B96" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>58</v>
@@ -9068,7 +9062,7 @@
         <v>59</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H96" t="s">
         <v>9</v>
@@ -9076,25 +9070,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
@@ -9102,7 +9096,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
@@ -9120,7 +9114,7 @@
         <v>8</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H98" t="s">
         <v>9</v>
@@ -9128,7 +9122,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -9146,7 +9140,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H99" t="s">
         <v>9</v>
@@ -9154,7 +9148,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -9172,7 +9166,7 @@
         <v>8</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H100" t="s">
         <v>9</v>
@@ -9180,25 +9174,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H101" t="s">
         <v>9</v>
@@ -9206,13 +9200,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>6</v>
@@ -9224,7 +9218,7 @@
         <v>31</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H102" t="s">
         <v>9</v>
@@ -9232,25 +9226,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H103" t="s">
         <v>9</v>
@@ -9258,13 +9252,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>6</v>
@@ -9276,7 +9270,7 @@
         <v>8</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H104" t="s">
         <v>9</v>
@@ -9284,25 +9278,25 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H105" t="s">
         <v>9</v>
@@ -9310,16 +9304,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>89</v>
@@ -9328,7 +9322,7 @@
         <v>24</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H106" t="s">
         <v>9</v>
@@ -9336,13 +9330,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>6</v>
@@ -9354,7 +9348,7 @@
         <v>8</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H107" t="s">
         <v>9</v>
@@ -9362,13 +9356,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>6</v>
@@ -9380,7 +9374,7 @@
         <v>8</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H108" t="s">
         <v>9</v>
@@ -9388,10 +9382,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B109" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
@@ -9400,13 +9394,13 @@
         <v>6</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H109" t="s">
         <v>9</v>
@@ -9414,10 +9408,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>5</v>
@@ -9432,7 +9426,7 @@
         <v>8</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
@@ -9440,10 +9434,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" t="s">
         <v>160</v>
-      </c>
-      <c r="B111" t="s">
-        <v>162</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
@@ -9458,7 +9452,7 @@
         <v>8</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
@@ -9466,10 +9460,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>5</v>
@@ -9484,7 +9478,7 @@
         <v>8</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
@@ -9492,10 +9486,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
@@ -9510,7 +9504,7 @@
         <v>8</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
@@ -9518,10 +9512,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
@@ -9536,7 +9530,7 @@
         <v>8</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -9544,10 +9538,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
@@ -9562,7 +9556,7 @@
         <v>8</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
@@ -9570,10 +9564,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>5</v>
@@ -9588,7 +9582,7 @@
         <v>8</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
@@ -9596,7 +9590,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
         <v>21</v>
@@ -9614,7 +9608,7 @@
         <v>8</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
@@ -9622,25 +9616,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -9648,10 +9642,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>29</v>
@@ -9660,13 +9654,13 @@
         <v>6</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -9674,25 +9668,25 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -9700,25 +9694,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -9726,25 +9720,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -9752,16 +9746,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>7</v>
@@ -9770,7 +9764,7 @@
         <v>8</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -9778,13 +9772,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>58</v>
@@ -9796,7 +9790,7 @@
         <v>59</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -9804,13 +9798,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>58</v>
@@ -9822,7 +9816,7 @@
         <v>59</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -9830,13 +9824,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>58</v>
@@ -9848,7 +9842,7 @@
         <v>59</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -9856,10 +9850,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>57</v>
@@ -9874,7 +9868,7 @@
         <v>59</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -9882,10 +9876,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>61</v>
@@ -9900,7 +9894,7 @@
         <v>59</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -9908,13 +9902,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>58</v>
@@ -9926,7 +9920,7 @@
         <v>59</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -9934,10 +9928,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>64</v>
@@ -9952,7 +9946,7 @@
         <v>59</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -9960,10 +9954,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>91</v>
@@ -9978,7 +9972,7 @@
         <v>59</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -9986,13 +9980,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>92</v>
@@ -10004,7 +9998,7 @@
         <v>59</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -10012,10 +10006,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>94</v>
@@ -10030,7 +10024,7 @@
         <v>59</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -10038,91 +10032,91 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H134" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H136" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>6</v>
@@ -10134,21 +10128,21 @@
         <v>8</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H137" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>6</v>
@@ -10160,21 +10154,21 @@
         <v>8</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H138" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
         <v>192</v>
       </c>
-      <c r="B139" t="s">
-        <v>195</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>6</v>
@@ -10186,151 +10180,151 @@
         <v>8</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H139" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H140" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H141" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H142" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H143" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H144" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B145" t="s">
         <v>93</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>92</v>
@@ -10342,21 +10336,21 @@
         <v>59</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H145" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s">
         <v>90</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>92</v>
@@ -10368,21 +10362,21 @@
         <v>59</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H146" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B147" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>6</v>
@@ -10394,47 +10388,47 @@
         <v>8</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H147" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B148" t="s">
         <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H148" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B149" t="s">
         <v>60</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>58</v>
@@ -10446,59 +10440,59 @@
         <v>59</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -10506,25 +10500,25 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B152" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -10532,13 +10526,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B153" t="s">
         <v>56</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>58</v>
@@ -10550,7 +10544,7 @@
         <v>59</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -10558,13 +10552,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B154" t="s">
         <v>60</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>58</v>
@@ -10576,7 +10570,7 @@
         <v>59</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -10584,13 +10578,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
         <v>63</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>58</v>
@@ -10602,7 +10596,7 @@
         <v>59</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -10610,25 +10604,25 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -10636,25 +10630,25 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -10662,13 +10656,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
         <v>90</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>92</v>
@@ -10680,7 +10674,7 @@
         <v>59</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -10688,13 +10682,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
         <v>93</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>92</v>
@@ -10706,7 +10700,7 @@
         <v>59</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -10714,16 +10708,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B160" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>59</v>
@@ -10732,7 +10726,7 @@
         <v>59</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -10740,16 +10734,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>59</v>
@@ -10758,7 +10752,7 @@
         <v>59</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -10766,13 +10760,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>6</v>
@@ -10784,7 +10778,7 @@
         <v>8</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -10792,25 +10786,25 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>216</v>
+      </c>
+      <c r="B163" t="s">
         <v>219</v>
       </c>
-      <c r="B163" t="s">
-        <v>222</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -10818,25 +10812,25 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -10844,25 +10838,25 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -10870,13 +10864,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B166" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>40</v>
@@ -10888,7 +10882,7 @@
         <v>8</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -10896,13 +10890,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>6</v>
@@ -10914,7 +10908,7 @@
         <v>8</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -10922,13 +10916,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B168" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>6</v>
@@ -10940,7 +10934,7 @@
         <v>8</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -10948,25 +10942,25 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B169" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -10974,16 +10968,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B170" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>7</v>
@@ -10992,7 +10986,7 @@
         <v>8</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -11000,16 +10994,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>59</v>
@@ -11018,7 +11012,7 @@
         <v>59</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -11026,25 +11020,25 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -11052,13 +11046,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B173" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>40</v>
@@ -11070,7 +11064,7 @@
         <v>8</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -11078,36 +11072,36 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H174" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>64</v>
@@ -11122,21 +11116,21 @@
         <v>31</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H175" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B176" t="s">
         <v>50</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>92</v>
@@ -11148,24 +11142,24 @@
         <v>59</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H176" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>251</v>
+      </c>
+      <c r="B177" t="s">
         <v>254</v>
       </c>
-      <c r="B177" t="s">
-        <v>257</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>31</v>
@@ -11174,137 +11168,137 @@
         <v>31</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H177" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B178" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H178" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B179" t="s">
+        <v>256</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H179" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B180" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H180" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B181" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -11312,25 +11306,25 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -11338,13 +11332,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>273</v>
+      </c>
+      <c r="B184" t="s">
         <v>276</v>
       </c>
-      <c r="B184" t="s">
-        <v>279</v>
-      </c>
       <c r="C184" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>58</v>
@@ -11356,7 +11350,7 @@
         <v>59</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -11364,13 +11358,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B185" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>58</v>
@@ -11382,7 +11376,7 @@
         <v>59</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -11390,13 +11384,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>58</v>
@@ -11408,7 +11402,7 @@
         <v>59</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -11416,13 +11410,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>92</v>
@@ -11434,7 +11428,7 @@
         <v>59</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -11442,13 +11436,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>92</v>
@@ -11460,7 +11454,7 @@
         <v>59</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -11468,25 +11462,25 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -11494,13 +11488,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B190" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>6</v>
@@ -11512,7 +11506,7 @@
         <v>8</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -11520,13 +11514,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>6</v>
@@ -11538,7 +11532,7 @@
         <v>8</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -11546,25 +11540,25 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B192" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -11572,25 +11566,25 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B193" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -11598,13 +11592,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B194" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>6</v>
@@ -11616,7 +11610,7 @@
         <v>8</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -11624,16 +11618,16 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>7</v>
@@ -11642,7 +11636,7 @@
         <v>8</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -11650,13 +11644,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B196" t="s">
         <v>86</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>6</v>
@@ -11668,7 +11662,7 @@
         <v>8</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -11676,25 +11670,25 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>298</v>
+        <v>467</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -11702,13 +11696,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>6</v>
@@ -11720,7 +11714,7 @@
         <v>8</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -11728,25 +11722,25 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B199" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -11754,25 +11748,25 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B200" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -11780,25 +11774,25 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B201" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -11806,25 +11800,25 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>332</v>
+      </c>
+      <c r="B202" t="s">
         <v>336</v>
       </c>
-      <c r="B202" t="s">
-        <v>340</v>
-      </c>
       <c r="C202" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -11832,16 +11826,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B203" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>59</v>
@@ -11850,7 +11844,7 @@
         <v>59</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -11858,25 +11852,25 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -11884,13 +11878,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B205" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>40</v>
@@ -11902,7 +11896,7 @@
         <v>8</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -11910,16 +11904,16 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B206" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>59</v>
@@ -11928,7 +11922,7 @@
         <v>59</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -11936,10 +11930,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B207" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>94</v>
@@ -11954,7 +11948,7 @@
         <v>59</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -11962,13 +11956,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B208" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>92</v>
@@ -11980,7 +11974,7 @@
         <v>59</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -11988,25 +11982,25 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B209" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -12014,7 +12008,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
@@ -12026,13 +12020,13 @@
         <v>6</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -12040,13 +12034,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B211" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>6</v>
@@ -12058,7 +12052,7 @@
         <v>8</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -12066,25 +12060,25 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B212" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -12092,13 +12086,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B213" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>6</v>
@@ -12110,7 +12104,7 @@
         <v>8</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -12118,25 +12112,25 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B214" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -12144,25 +12138,25 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B215" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -12170,25 +12164,25 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B216" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -12196,25 +12190,25 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B217" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -12222,25 +12216,25 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B218" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -12248,25 +12242,25 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B219" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -12274,7 +12268,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
         <v>60</v>
@@ -12286,13 +12280,13 @@
         <v>68</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -12300,13 +12294,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B221" t="s">
         <v>63</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>58</v>
@@ -12318,7 +12312,7 @@
         <v>59</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -12326,10 +12320,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>64</v>
@@ -12338,13 +12332,13 @@
         <v>68</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -12352,16 +12346,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B223" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>59</v>
@@ -12370,7 +12364,7 @@
         <v>59</v>
       </c>
       <c r="G223" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -12378,13 +12372,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B224" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>92</v>
@@ -12396,7 +12390,7 @@
         <v>59</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -12404,25 +12398,25 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B225" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -12430,25 +12424,25 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -12456,13 +12450,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>6</v>
@@ -12474,7 +12468,7 @@
         <v>8</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -12482,13 +12476,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B228" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>6</v>
@@ -12500,7 +12494,7 @@
         <v>8</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -12508,13 +12502,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B229" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>92</v>
@@ -12526,7 +12520,7 @@
         <v>59</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -12534,13 +12528,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B230" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>92</v>
@@ -12552,7 +12546,7 @@
         <v>59</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -12560,13 +12554,13 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B231" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>92</v>
@@ -12578,7 +12572,7 @@
         <v>59</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -12586,25 +12580,25 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B232" t="s">
         <v>56</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -12612,25 +12606,25 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B233" t="s">
         <v>60</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -12638,25 +12632,25 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B234" t="s">
         <v>63</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -12664,25 +12658,25 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B235" t="s">
         <v>66</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -12690,16 +12684,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B236" t="s">
+        <v>109</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C236" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D236" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>59</v>
@@ -12708,7 +12702,7 @@
         <v>59</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -12716,13 +12710,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B237" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>40</v>
@@ -12734,7 +12728,7 @@
         <v>8</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -12742,13 +12736,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B238" t="s">
         <v>90</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>92</v>
@@ -12760,7 +12754,7 @@
         <v>59</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -12768,13 +12762,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B239" t="s">
         <v>93</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>92</v>
@@ -12786,7 +12780,7 @@
         <v>59</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -12794,25 +12788,25 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B240" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -12820,13 +12814,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>6</v>
@@ -12838,7 +12832,7 @@
         <v>8</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -12846,25 +12840,25 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B242" t="s">
         <v>10</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -12872,25 +12866,25 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -12898,25 +12892,25 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B244" t="s">
         <v>12</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -12924,13 +12918,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>6</v>
@@ -12942,7 +12936,7 @@
         <v>8</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -12950,25 +12944,25 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B246" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -12976,59 +12970,59 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B247" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H247" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B248" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H248" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B249" t="s">
         <v>56</v>
@@ -13040,21 +13034,21 @@
         <v>40</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H249" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B250" t="s">
         <v>60</v>
@@ -13066,47 +13060,47 @@
         <v>40</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H250" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B251" t="s">
         <v>63</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H251" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B252" t="s">
         <v>90</v>
@@ -13115,50 +13109,50 @@
         <v>91</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H252" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B253" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H253" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B254" t="s">
         <v>93</v>
@@ -13167,59 +13161,59 @@
         <v>94</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H254" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B255" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H255" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B256" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>59</v>
@@ -13228,85 +13222,85 @@
         <v>59</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H256" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B257" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H257" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B258" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H258" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B259" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -13314,25 +13308,25 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B260" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -13340,25 +13334,25 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B261" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -13366,13 +13360,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B262" t="s">
         <v>50</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>92</v>
@@ -13384,7 +13378,7 @@
         <v>59</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -13392,25 +13386,25 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B263" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -13418,16 +13412,16 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B264" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>59</v>
@@ -13436,7 +13430,7 @@
         <v>59</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -13444,13 +13438,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B265" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>6</v>
@@ -13462,7 +13456,7 @@
         <v>8</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -13470,25 +13464,25 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B266" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -13496,25 +13490,25 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B267" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -13522,25 +13516,25 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B268" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -13548,25 +13542,25 @@
     </row>
     <row r="269" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B269" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -13574,7 +13568,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B270" t="s">
         <v>56</v>
@@ -13586,13 +13580,13 @@
         <v>68</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -13600,25 +13594,25 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B271" t="s">
         <v>90</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -13626,25 +13620,25 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B272" t="s">
         <v>93</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -13652,25 +13646,25 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B273" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -13678,25 +13672,25 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B274" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -13704,25 +13698,25 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -13730,25 +13724,25 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B276" t="s">
         <v>10</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -13756,25 +13750,25 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B277" t="s">
         <v>11</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="F277" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -13782,25 +13776,25 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>415</v>
+      </c>
+      <c r="B278" t="s">
+        <v>416</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B278" t="s">
-        <v>422</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -13808,25 +13802,25 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B279" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -13834,25 +13828,25 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B280" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -13860,13 +13854,13 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B281" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>92</v>
@@ -13878,7 +13872,7 @@
         <v>59</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -13886,25 +13880,25 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B282" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -13912,25 +13906,25 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B283" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -13938,13 +13932,13 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B284" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>58</v>
@@ -13956,7 +13950,7 @@
         <v>59</v>
       </c>
       <c r="G284" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -13964,25 +13958,25 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B285" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -13990,25 +13984,25 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B286" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -14016,13 +14010,13 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B287" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>92</v>
@@ -14034,7 +14028,7 @@
         <v>59</v>
       </c>
       <c r="G287" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -14042,25 +14036,25 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B288" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -14068,10 +14062,10 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B289" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>5</v>
@@ -14086,7 +14080,7 @@
         <v>8</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -14094,13 +14088,13 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B290" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>6</v>
@@ -14112,7 +14106,7 @@
         <v>8</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -14120,25 +14114,25 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B291" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F291" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -14146,10 +14140,10 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B292" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>5</v>
@@ -14164,7 +14158,7 @@
         <v>8</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -14172,25 +14166,25 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B293" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -14198,25 +14192,25 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B294" t="s">
         <v>56</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -14224,7 +14218,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B295" t="s">
         <v>60</v>
@@ -14236,13 +14230,13 @@
         <v>68</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -14250,16 +14244,16 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>436</v>
+      </c>
+      <c r="B296" t="s">
+        <v>437</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B296" t="s">
-        <v>444</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="D296" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>59</v>
@@ -14268,7 +14262,7 @@
         <v>59</v>
       </c>
       <c r="G296" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -14276,10 +14270,10 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B297" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>92</v>
@@ -14294,7 +14288,7 @@
         <v>59</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -14302,7 +14296,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B298" t="s">
         <v>90</v>
@@ -14320,7 +14314,7 @@
         <v>59</v>
       </c>
       <c r="G298" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -14328,7 +14322,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B299" t="s">
         <v>93</v>
@@ -14346,7 +14340,7 @@
         <v>59</v>
       </c>
       <c r="G299" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -14354,13 +14348,13 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B300" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>40</v>
@@ -14372,7 +14366,7 @@
         <v>31</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -14380,13 +14374,13 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>6</v>
@@ -14398,7 +14392,7 @@
         <v>8</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -14406,13 +14400,13 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B302" t="s">
         <v>10</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>6</v>
@@ -14424,47 +14418,47 @@
         <v>8</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H302" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B303" t="s">
         <v>11</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H303" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B304" t="s">
         <v>12</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>6</v>
@@ -14476,47 +14470,47 @@
         <v>8</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H304" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B305" t="s">
         <v>13</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F305" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H305" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B306" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>6</v>
@@ -14528,7 +14522,7 @@
         <v>8</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -14536,51 +14530,51 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B307" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E307" s="14" t="s">
-        <v>298</v>
+        <v>467</v>
       </c>
       <c r="F307" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H307" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B308" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -14588,13 +14582,13 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B309" t="s">
         <v>56</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>58</v>
@@ -14606,7 +14600,7 @@
         <v>59</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -14614,25 +14608,25 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B310" t="s">
         <v>60</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -14640,25 +14634,25 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B311" t="s">
         <v>63</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -14666,7 +14660,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B312" t="s">
         <v>90</v>
@@ -14684,7 +14678,7 @@
         <v>59</v>
       </c>
       <c r="G312" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -14692,7 +14686,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B313" t="s">
         <v>93</v>
@@ -14710,7 +14704,7 @@
         <v>59</v>
       </c>
       <c r="G313" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -14718,25 +14712,25 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B314" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -14744,25 +14738,25 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B315" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -14770,25 +14764,25 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B316" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -14796,25 +14790,25 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B317" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -14822,25 +14816,25 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -14848,25 +14842,25 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B319" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -14874,25 +14868,25 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B320" t="s">
         <v>10</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -14900,25 +14894,25 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B321" t="s">
         <v>11</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -14926,25 +14920,25 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B322" t="s">
         <v>12</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -14952,25 +14946,25 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B323" t="s">
         <v>13</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -14978,25 +14972,25 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B324" t="s">
         <v>18</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -15004,25 +14998,25 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B325" t="s">
+        <v>454</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="D325" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -15030,25 +15024,25 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B326" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -15056,25 +15050,25 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B327" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -15082,16 +15076,16 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B328" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>59</v>
@@ -15100,10 +15094,10 @@
         <v>59</v>
       </c>
       <c r="G328" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H328" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
